--- a/data/trans_dic/P56$familiar-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiar-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,41</t>
+          <t>0,0; 38,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,32; 34,93</t>
+          <t>4,33; 38,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,17; 34,18</t>
+          <t>4,23; 33,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,29; 52,7</t>
+          <t>24,08; 50,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,62; 43,93</t>
+          <t>9,06; 43,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,55; 36,9</t>
+          <t>12,87; 40,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,91; 25,77</t>
+          <t>5,02; 27,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>45,44; 64,63</t>
+          <t>44,06; 64,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,96; 34,71</t>
+          <t>7,86; 34,08</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,48; 32,62</t>
+          <t>11,66; 32,29</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,38; 23,18</t>
+          <t>6,08; 23,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>40,38; 56,63</t>
+          <t>41,43; 57,04</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,33; 38,37</t>
+          <t>12,24; 40,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,9; 43,86</t>
+          <t>19,1; 43,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,93; 30,13</t>
+          <t>10,06; 30,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>46,82; 64,89</t>
+          <t>46,91; 65,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,36; 27,45</t>
+          <t>8,86; 28,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,04; 39,0</t>
+          <t>24,68; 38,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,02; 38,42</t>
+          <t>20,54; 38,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>51,4; 61,28</t>
+          <t>51,29; 61,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,41; 27,8</t>
+          <t>11,78; 27,73</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25,27; 37,71</t>
+          <t>24,8; 38,19</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>19,9; 34,9</t>
+          <t>19,94; 33,87</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>51,79; 60,56</t>
+          <t>51,35; 60,09</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,73; 33,45</t>
+          <t>11,14; 32,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,48; 38,19</t>
+          <t>16,3; 37,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,72; 26,4</t>
+          <t>9,78; 26,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>42,63; 57,73</t>
+          <t>42,17; 57,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,32; 27,37</t>
+          <t>11,23; 27,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>23,77; 36,48</t>
+          <t>23,79; 37,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,83; 32,5</t>
+          <t>19,0; 33,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>51,55; 60,59</t>
+          <t>51,84; 60,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,78; 26,39</t>
+          <t>13,33; 26,2</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22,94; 34,07</t>
+          <t>23,59; 34,69</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17,31; 29,37</t>
+          <t>17,99; 29,64</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>50,43; 58,63</t>
+          <t>50,26; 57,99</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda un familiar no conviviente cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1645</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3148</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2897</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11006</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>9758</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5304</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>29169</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6581</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>12906</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>8202</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>40175</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4956</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>927; 8346</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>893; 7125</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7140; 15073</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2000; 9610</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>5424; 16990</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2068; 11395</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>23351; 34037</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2746; 11904</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>7412; 20525</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>3786; 14593</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>34242; 47146</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>8221</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>17142</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>9417</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>40146</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>12071</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>51176</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>38103</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>111666</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>20291</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>68318</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>47521</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>151812</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4334; 14263</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>10899; 25079</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>5132; 15382</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>33969; 47264</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>6331; 20573</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>40252; 63596</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>26827; 50756</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>101581; 121814</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>12589; 29645</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>54606; 84080</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>36204; 61512</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>138863; 162509</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>9866</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>20290</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>12314</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>51152</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>17006</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>60934</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>43407</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>140834</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>26873</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>81224</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>55722</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>191987</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>5379; 15524</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>12799; 29383</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>7052; 19077</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>43036; 58931</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>10506; 25341</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>48827; 76005</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>32633; 57110</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>130128; 152263</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>18898; 37160</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>66930; 98422</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>43864; 72276</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>177458; 204769</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>